--- a/data/pca/factorExposure/factorExposure_2016-03-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01143730451918308</v>
+        <v>0.01567706207254486</v>
       </c>
       <c r="C2">
-        <v>-0.05261571234761601</v>
+        <v>0.03940164970961636</v>
       </c>
       <c r="D2">
-        <v>-0.0423939468040732</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06601012973073137</v>
+      </c>
+      <c r="E2">
+        <v>-0.1014375889708976</v>
+      </c>
+      <c r="F2">
+        <v>-0.0768776974268426</v>
+      </c>
+      <c r="G2">
+        <v>0.02583713507611313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04320411558700978</v>
+        <v>0.02677882767920469</v>
       </c>
       <c r="C3">
-        <v>-0.1214916181059917</v>
+        <v>0.06610509001732606</v>
       </c>
       <c r="D3">
-        <v>-0.08556095873864411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07753181336983461</v>
+      </c>
+      <c r="E3">
+        <v>-0.0677667761937118</v>
+      </c>
+      <c r="F3">
+        <v>0.02870792163851936</v>
+      </c>
+      <c r="G3">
+        <v>0.03641610628538823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06276094032482853</v>
+        <v>0.06064447309602074</v>
       </c>
       <c r="C4">
-        <v>-0.06642141997686381</v>
+        <v>0.06483365806311499</v>
       </c>
       <c r="D4">
-        <v>-0.03342250451441964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06360468049344682</v>
+      </c>
+      <c r="E4">
+        <v>-0.09931819300278938</v>
+      </c>
+      <c r="F4">
+        <v>-0.03240717083793838</v>
+      </c>
+      <c r="G4">
+        <v>0.07628944322643788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03956437801524235</v>
+        <v>0.03701574615383809</v>
       </c>
       <c r="C6">
-        <v>-0.03765850379918653</v>
+        <v>0.02781985574607392</v>
       </c>
       <c r="D6">
-        <v>-0.03236921429539998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06772484084639763</v>
+      </c>
+      <c r="E6">
+        <v>-0.09241982145393042</v>
+      </c>
+      <c r="F6">
+        <v>-0.02298518122569122</v>
+      </c>
+      <c r="G6">
+        <v>0.05690236309483378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02664523806318156</v>
+        <v>0.02121102173340375</v>
       </c>
       <c r="C7">
-        <v>-0.04109895871915142</v>
+        <v>0.0365918704116684</v>
       </c>
       <c r="D7">
-        <v>0.002192460772410524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04380337126887315</v>
+      </c>
+      <c r="E7">
+        <v>-0.07672959669817914</v>
+      </c>
+      <c r="F7">
+        <v>-0.06053813277968975</v>
+      </c>
+      <c r="G7">
+        <v>0.09824122991016318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007898682186008813</v>
+        <v>0.007448766416501143</v>
       </c>
       <c r="C8">
-        <v>-0.0395486558062054</v>
+        <v>0.03404782855011276</v>
       </c>
       <c r="D8">
-        <v>-0.02856571590962367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04078085970079148</v>
+      </c>
+      <c r="E8">
+        <v>-0.06178535142558268</v>
+      </c>
+      <c r="F8">
+        <v>-0.01331254444681513</v>
+      </c>
+      <c r="G8">
+        <v>0.0342193930452518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03951496771339592</v>
+        <v>0.04130233945913336</v>
       </c>
       <c r="C9">
-        <v>-0.04731319899646805</v>
+        <v>0.05091916607991655</v>
       </c>
       <c r="D9">
-        <v>-0.01646102065655624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04521916051644234</v>
+      </c>
+      <c r="E9">
+        <v>-0.0771824971216906</v>
+      </c>
+      <c r="F9">
+        <v>-0.04932788092872528</v>
+      </c>
+      <c r="G9">
+        <v>0.07682867436208843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07227019594864958</v>
+        <v>0.09983304374467449</v>
       </c>
       <c r="C10">
-        <v>0.1932610796413352</v>
+        <v>-0.2022127007147476</v>
       </c>
       <c r="D10">
-        <v>0.002740930102092371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01055756818883323</v>
+      </c>
+      <c r="E10">
+        <v>-0.03482029512219545</v>
+      </c>
+      <c r="F10">
+        <v>-0.0171754167581126</v>
+      </c>
+      <c r="G10">
+        <v>0.03897861044820709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04322245890630942</v>
+        <v>0.03773153991466445</v>
       </c>
       <c r="C11">
-        <v>-0.05153456728871281</v>
+        <v>0.04768211042178187</v>
       </c>
       <c r="D11">
-        <v>-0.01624722821821549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03346331955780558</v>
+      </c>
+      <c r="E11">
+        <v>-0.03327133500229826</v>
+      </c>
+      <c r="F11">
+        <v>-0.03391564419138654</v>
+      </c>
+      <c r="G11">
+        <v>0.06872047061424136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04632825645409175</v>
+        <v>0.04001759880813473</v>
       </c>
       <c r="C12">
-        <v>-0.04612746761052891</v>
+        <v>0.04568897558282145</v>
       </c>
       <c r="D12">
-        <v>-0.002757716238165244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02862018330378192</v>
+      </c>
+      <c r="E12">
+        <v>-0.04099939446463714</v>
+      </c>
+      <c r="F12">
+        <v>-0.03545562998893875</v>
+      </c>
+      <c r="G12">
+        <v>0.06488686824230543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01620346985418868</v>
+        <v>0.0143886325973937</v>
       </c>
       <c r="C13">
-        <v>-0.05365304513532044</v>
+        <v>0.04210199262556822</v>
       </c>
       <c r="D13">
-        <v>-0.01080331563959525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05266004998531972</v>
+      </c>
+      <c r="E13">
+        <v>-0.1097642916645277</v>
+      </c>
+      <c r="F13">
+        <v>-0.05187776272346491</v>
+      </c>
+      <c r="G13">
+        <v>0.08985600374672746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01029911542831406</v>
+        <v>0.007376891855028646</v>
       </c>
       <c r="C14">
-        <v>-0.03616415128196975</v>
+        <v>0.03047529124225028</v>
       </c>
       <c r="D14">
-        <v>7.502312651785486e-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03018075788666319</v>
+      </c>
+      <c r="E14">
+        <v>-0.06420429194205274</v>
+      </c>
+      <c r="F14">
+        <v>-0.06840077672156621</v>
+      </c>
+      <c r="G14">
+        <v>0.07715416652470453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>7.465344636189552e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006236017321752906</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.009042094196188989</v>
+      </c>
+      <c r="E15">
+        <v>-0.006469341460101631</v>
+      </c>
+      <c r="F15">
+        <v>-0.005278407837444375</v>
+      </c>
+      <c r="G15">
+        <v>0.006936489505772575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0410803699681264</v>
+        <v>0.03592776868890785</v>
       </c>
       <c r="C16">
-        <v>-0.04832055714163923</v>
+        <v>0.04466134304987496</v>
       </c>
       <c r="D16">
-        <v>-0.005229585364859173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02807227339230889</v>
+      </c>
+      <c r="E16">
+        <v>-0.04808499648510348</v>
+      </c>
+      <c r="F16">
+        <v>-0.04604000673443586</v>
+      </c>
+      <c r="G16">
+        <v>0.054963874321418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02669186741183294</v>
+        <v>0.01881672901398233</v>
       </c>
       <c r="C19">
-        <v>-0.06073055775115045</v>
+        <v>0.04473211381052514</v>
       </c>
       <c r="D19">
-        <v>-0.09022088850558094</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09631002919850962</v>
+      </c>
+      <c r="E19">
+        <v>-0.1146727477952772</v>
+      </c>
+      <c r="F19">
+        <v>-0.05538255524833271</v>
+      </c>
+      <c r="G19">
+        <v>0.03461545638073096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02003804806008537</v>
+        <v>0.01610330819757382</v>
       </c>
       <c r="C20">
-        <v>-0.0497712304942376</v>
+        <v>0.04029464111937332</v>
       </c>
       <c r="D20">
-        <v>-0.01071671942679717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03965926920443883</v>
+      </c>
+      <c r="E20">
+        <v>-0.08703546377653952</v>
+      </c>
+      <c r="F20">
+        <v>-0.04877322529170855</v>
+      </c>
+      <c r="G20">
+        <v>0.06148031734004149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01356913157649011</v>
+        <v>0.01277003880094523</v>
       </c>
       <c r="C21">
-        <v>-0.05614623043787544</v>
+        <v>0.04437465346884956</v>
       </c>
       <c r="D21">
-        <v>-0.03403262922402638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06489617820215154</v>
+      </c>
+      <c r="E21">
+        <v>-0.1364753533647871</v>
+      </c>
+      <c r="F21">
+        <v>-0.07806227699041796</v>
+      </c>
+      <c r="G21">
+        <v>0.08903462294007194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.002437380407913151</v>
+        <v>0.004157555647659134</v>
       </c>
       <c r="C22">
-        <v>-0.001165500679301232</v>
+        <v>0.02903069523412828</v>
       </c>
       <c r="D22">
-        <v>-0.00851992795591967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05450329649197081</v>
+      </c>
+      <c r="E22">
+        <v>-0.05858823308726435</v>
+      </c>
+      <c r="F22">
+        <v>0.02730092815330541</v>
+      </c>
+      <c r="G22">
+        <v>0.05379675733623277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.002441212184637778</v>
+        <v>0.004263540513051646</v>
       </c>
       <c r="C23">
-        <v>-0.001184179883105261</v>
+        <v>0.02906482272386009</v>
       </c>
       <c r="D23">
-        <v>-0.008493805352365838</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.05383256869492335</v>
+      </c>
+      <c r="E23">
+        <v>-0.05891593849012548</v>
+      </c>
+      <c r="F23">
+        <v>0.02744721491200787</v>
+      </c>
+      <c r="G23">
+        <v>0.05388938046518704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03829133079314727</v>
+        <v>0.03693172980009037</v>
       </c>
       <c r="C24">
-        <v>-0.0503552684194912</v>
+        <v>0.05254938765129284</v>
       </c>
       <c r="D24">
-        <v>-0.01005674029136105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02849454005053482</v>
+      </c>
+      <c r="E24">
+        <v>-0.05088241289122263</v>
+      </c>
+      <c r="F24">
+        <v>-0.04665099943442891</v>
+      </c>
+      <c r="G24">
+        <v>0.06523826368234487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04955292878823149</v>
+        <v>0.04437943763366863</v>
       </c>
       <c r="C25">
-        <v>-0.05933763498161894</v>
+        <v>0.05541088746946557</v>
       </c>
       <c r="D25">
-        <v>0.0009969970106375446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02589480005097075</v>
+      </c>
+      <c r="E25">
+        <v>-0.04177338814509427</v>
+      </c>
+      <c r="F25">
+        <v>-0.03738545167829923</v>
+      </c>
+      <c r="G25">
+        <v>0.07889237969435012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0189055627489115</v>
+        <v>0.01755436951253591</v>
       </c>
       <c r="C26">
-        <v>-0.01748330708153825</v>
+        <v>0.01658931909218773</v>
       </c>
       <c r="D26">
-        <v>-0.008828003420207779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02908497573573462</v>
+      </c>
+      <c r="E26">
+        <v>-0.05824108279965073</v>
+      </c>
+      <c r="F26">
+        <v>-0.05107042496442498</v>
+      </c>
+      <c r="G26">
+        <v>0.04518589121793411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08904815366629282</v>
+        <v>0.1365610209237839</v>
       </c>
       <c r="C28">
-        <v>0.2535226051802595</v>
+        <v>-0.2589063544928201</v>
       </c>
       <c r="D28">
-        <v>0.006805590949060844</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02667589699761295</v>
+      </c>
+      <c r="E28">
+        <v>-0.05637732835990016</v>
+      </c>
+      <c r="F28">
+        <v>-0.02889289605668795</v>
+      </c>
+      <c r="G28">
+        <v>0.05350989647358052</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008539822031649815</v>
+        <v>0.00793058857754112</v>
       </c>
       <c r="C29">
-        <v>-0.03138640431414475</v>
+        <v>0.0283316665518133</v>
       </c>
       <c r="D29">
-        <v>0.005990120895830856</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02265308656669807</v>
+      </c>
+      <c r="E29">
+        <v>-0.06350651300978424</v>
+      </c>
+      <c r="F29">
+        <v>-0.05845401697474238</v>
+      </c>
+      <c r="G29">
+        <v>0.08146242574129051</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04686779917165419</v>
+        <v>0.04466590240249846</v>
       </c>
       <c r="C30">
-        <v>-0.04861618747892444</v>
+        <v>0.05620746390243587</v>
       </c>
       <c r="D30">
-        <v>-0.08165517864324325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1072622113591888</v>
+      </c>
+      <c r="E30">
+        <v>-0.08542933694683182</v>
+      </c>
+      <c r="F30">
+        <v>-0.05540934382166807</v>
+      </c>
+      <c r="G30">
+        <v>0.05741201043119114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06220531062821179</v>
+        <v>0.05995888521538065</v>
       </c>
       <c r="C31">
-        <v>-0.04644965605798791</v>
+        <v>0.06168825736999175</v>
       </c>
       <c r="D31">
-        <v>0.04187090637737802</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01210448484004623</v>
+      </c>
+      <c r="E31">
+        <v>-0.07757958573086914</v>
+      </c>
+      <c r="F31">
+        <v>-0.01650832111220968</v>
+      </c>
+      <c r="G31">
+        <v>0.07442896437169641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003672423380128224</v>
+        <v>0.009110735098526656</v>
       </c>
       <c r="C32">
-        <v>-0.04100417411239751</v>
+        <v>0.03453591004458307</v>
       </c>
       <c r="D32">
-        <v>-0.06115474841886043</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05953883775923752</v>
+      </c>
+      <c r="E32">
+        <v>-0.06622792166149036</v>
+      </c>
+      <c r="F32">
+        <v>-0.05851027891898676</v>
+      </c>
+      <c r="G32">
+        <v>0.06075751571103707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03488974275647414</v>
+        <v>0.02864190581246948</v>
       </c>
       <c r="C33">
-        <v>-0.05814839387007956</v>
+        <v>0.05231117594318806</v>
       </c>
       <c r="D33">
-        <v>-0.04144612212804422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07509593340349549</v>
+      </c>
+      <c r="E33">
+        <v>-0.09419423125109291</v>
+      </c>
+      <c r="F33">
+        <v>-0.05724070366344102</v>
+      </c>
+      <c r="G33">
+        <v>0.09883161883426486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04573308391495667</v>
+        <v>0.04153626273602852</v>
       </c>
       <c r="C34">
-        <v>-0.06514642770546912</v>
+        <v>0.06290920640826438</v>
       </c>
       <c r="D34">
-        <v>-0.02502723564782851</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03930753567644232</v>
+      </c>
+      <c r="E34">
+        <v>-0.02335813585305796</v>
+      </c>
+      <c r="F34">
+        <v>-0.04877902853211636</v>
+      </c>
+      <c r="G34">
+        <v>0.07275647968915196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01821827646619403</v>
+        <v>0.01574911973335402</v>
       </c>
       <c r="C36">
-        <v>-0.01629440556267721</v>
+        <v>0.01363662806802739</v>
       </c>
       <c r="D36">
-        <v>-0.0004383838256169884</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02821160300830038</v>
+      </c>
+      <c r="E36">
+        <v>-0.0673955209901294</v>
+      </c>
+      <c r="F36">
+        <v>-0.04367490031286717</v>
+      </c>
+      <c r="G36">
+        <v>0.06280236989880454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03012918734406804</v>
+        <v>0.02373512083375478</v>
       </c>
       <c r="C38">
-        <v>-0.03267589160550294</v>
+        <v>0.02466584517640288</v>
       </c>
       <c r="D38">
-        <v>0.01459958679452185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02188452330628093</v>
+      </c>
+      <c r="E38">
+        <v>-0.05643697452238126</v>
+      </c>
+      <c r="F38">
+        <v>-0.03535394727144998</v>
+      </c>
+      <c r="G38">
+        <v>0.04377443705404405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04861564720879381</v>
+        <v>0.04242893762815755</v>
       </c>
       <c r="C39">
-        <v>-0.06087379106009617</v>
+        <v>0.06229680521754385</v>
       </c>
       <c r="D39">
-        <v>-0.02271704703551508</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05388917661946774</v>
+      </c>
+      <c r="E39">
+        <v>-0.0569838917348409</v>
+      </c>
+      <c r="F39">
+        <v>-0.06762427399739107</v>
+      </c>
+      <c r="G39">
+        <v>0.06164188071400273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0123741335970237</v>
+        <v>0.01530487880752252</v>
       </c>
       <c r="C40">
-        <v>-0.05422067622857817</v>
+        <v>0.03810555090538137</v>
       </c>
       <c r="D40">
-        <v>-0.01180102149027185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03385907867765851</v>
+      </c>
+      <c r="E40">
+        <v>-0.0971949568517711</v>
+      </c>
+      <c r="F40">
+        <v>-0.03220247605273381</v>
+      </c>
+      <c r="G40">
+        <v>0.09642508179242566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02449963530177083</v>
+        <v>0.02052038824735257</v>
       </c>
       <c r="C41">
-        <v>-0.01282170360914975</v>
+        <v>0.009755063880354093</v>
       </c>
       <c r="D41">
-        <v>-0.002339524800365076</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01957258318976264</v>
+      </c>
+      <c r="E41">
+        <v>-0.06834023292937851</v>
+      </c>
+      <c r="F41">
+        <v>-0.03745097576875557</v>
+      </c>
+      <c r="G41">
+        <v>0.04934632287767295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04562610304879764</v>
+        <v>0.03239825179918421</v>
       </c>
       <c r="C43">
-        <v>-0.03420985514264401</v>
+        <v>0.02510415512837448</v>
       </c>
       <c r="D43">
-        <v>-0.02290425095375261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04871394995854757</v>
+      </c>
+      <c r="E43">
+        <v>-0.0851264414064008</v>
+      </c>
+      <c r="F43">
+        <v>-0.02954105935756904</v>
+      </c>
+      <c r="G43">
+        <v>0.07174765807979189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01754895349542605</v>
+        <v>0.0187192633895964</v>
       </c>
       <c r="C44">
-        <v>-0.07120328943419792</v>
+        <v>0.04826656770226317</v>
       </c>
       <c r="D44">
-        <v>-0.003655932935796175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03602129675715858</v>
+      </c>
+      <c r="E44">
+        <v>-0.09298250690976614</v>
+      </c>
+      <c r="F44">
+        <v>-0.05692896969536648</v>
+      </c>
+      <c r="G44">
+        <v>0.05053462716917277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01285350144085212</v>
+        <v>0.01303488397181528</v>
       </c>
       <c r="C46">
-        <v>-0.02736453432665765</v>
+        <v>0.02938248666180161</v>
       </c>
       <c r="D46">
-        <v>0.007939134041255831</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02009572890792397</v>
+      </c>
+      <c r="E46">
+        <v>-0.07672161739929985</v>
+      </c>
+      <c r="F46">
+        <v>-0.06718987390425171</v>
+      </c>
+      <c r="G46">
+        <v>0.07674609722775629</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09189273758779447</v>
+        <v>0.09364392372677459</v>
       </c>
       <c r="C47">
-        <v>-0.06703519894971566</v>
+        <v>0.07867407495292174</v>
       </c>
       <c r="D47">
-        <v>0.04559054102142038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02083330625404921</v>
+      </c>
+      <c r="E47">
+        <v>-0.0679948605320408</v>
+      </c>
+      <c r="F47">
+        <v>-0.01999395640940424</v>
+      </c>
+      <c r="G47">
+        <v>0.07638780383293312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02051734669140903</v>
+        <v>0.01887575377369118</v>
       </c>
       <c r="C48">
-        <v>-0.01353336520429173</v>
+        <v>0.01616550482838981</v>
       </c>
       <c r="D48">
-        <v>0.0148100725796944</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01529401470517731</v>
+      </c>
+      <c r="E48">
+        <v>-0.08095766826586305</v>
+      </c>
+      <c r="F48">
+        <v>-0.0579321195815343</v>
+      </c>
+      <c r="G48">
+        <v>0.06815420761503974</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08552077141300399</v>
+        <v>0.07286099657953882</v>
       </c>
       <c r="C50">
-        <v>-0.08199274899946765</v>
+        <v>0.07447057810708725</v>
       </c>
       <c r="D50">
-        <v>0.04193041044534819</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003118453397624571</v>
+      </c>
+      <c r="E50">
+        <v>-0.08329533778984075</v>
+      </c>
+      <c r="F50">
+        <v>0.01082486433680404</v>
+      </c>
+      <c r="G50">
+        <v>0.08381251390646983</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01700767762502819</v>
+        <v>0.01216208751421077</v>
       </c>
       <c r="C51">
-        <v>-0.0500367943549734</v>
+        <v>0.03106224462913939</v>
       </c>
       <c r="D51">
-        <v>-0.04672669734047031</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05839369671943774</v>
+      </c>
+      <c r="E51">
+        <v>-0.05744599679191557</v>
+      </c>
+      <c r="F51">
+        <v>-0.06278843266557362</v>
+      </c>
+      <c r="G51">
+        <v>0.05996553395408167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08471064996390587</v>
+        <v>0.09806370954561064</v>
       </c>
       <c r="C53">
-        <v>-0.07676381155129502</v>
+        <v>0.08461484948642307</v>
       </c>
       <c r="D53">
-        <v>0.06740513329699549</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06038438888208454</v>
+      </c>
+      <c r="E53">
+        <v>-0.07161272935593452</v>
+      </c>
+      <c r="F53">
+        <v>-0.0238536837149259</v>
+      </c>
+      <c r="G53">
+        <v>0.07334909045151478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03735774872892301</v>
+        <v>0.03083785137763715</v>
       </c>
       <c r="C54">
-        <v>-0.03447272092005781</v>
+        <v>0.03130893791494141</v>
       </c>
       <c r="D54">
-        <v>-0.002029905798588776</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02979845652987701</v>
+      </c>
+      <c r="E54">
+        <v>-0.06745290453041523</v>
+      </c>
+      <c r="F54">
+        <v>-0.06279204378690932</v>
+      </c>
+      <c r="G54">
+        <v>0.08289929421215213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08056628926241645</v>
+        <v>0.09075223791200472</v>
       </c>
       <c r="C55">
-        <v>-0.05144720986928508</v>
+        <v>0.06573041275144625</v>
       </c>
       <c r="D55">
-        <v>0.07143136693566525</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06023504006347308</v>
+      </c>
+      <c r="E55">
+        <v>-0.0464431912547629</v>
+      </c>
+      <c r="F55">
+        <v>-0.001351200466172034</v>
+      </c>
+      <c r="G55">
+        <v>0.05407361291910344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1537535438731274</v>
+        <v>0.1556742520857801</v>
       </c>
       <c r="C56">
-        <v>-0.07923074490116767</v>
+        <v>0.09885519421321788</v>
       </c>
       <c r="D56">
-        <v>0.06160295666597532</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05255638992397142</v>
+      </c>
+      <c r="E56">
+        <v>-0.03834265729617724</v>
+      </c>
+      <c r="F56">
+        <v>0.01120937624260403</v>
+      </c>
+      <c r="G56">
+        <v>0.02168768189451552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04809118012339877</v>
+        <v>0.03137966778930565</v>
       </c>
       <c r="C58">
-        <v>-0.01503012595571368</v>
+        <v>0.02138181335594276</v>
       </c>
       <c r="D58">
-        <v>-0.4822505942794233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3900662909488369</v>
+      </c>
+      <c r="E58">
+        <v>-0.5521818203256126</v>
+      </c>
+      <c r="F58">
+        <v>0.408195383623985</v>
+      </c>
+      <c r="G58">
+        <v>-0.5231956906837942</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1228278054919528</v>
+        <v>0.1392968922962687</v>
       </c>
       <c r="C59">
-        <v>0.2063654423615383</v>
+        <v>-0.1929338023238537</v>
       </c>
       <c r="D59">
-        <v>-0.0263685430991485</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03046519320483793</v>
+      </c>
+      <c r="E59">
+        <v>-0.02968664523110374</v>
+      </c>
+      <c r="F59">
+        <v>-0.0310748642838815</v>
+      </c>
+      <c r="G59">
+        <v>-0.007428302501071192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2996994647829088</v>
+        <v>0.2711864499671036</v>
       </c>
       <c r="C60">
-        <v>-0.1111845413323378</v>
+        <v>0.1042677677869173</v>
       </c>
       <c r="D60">
-        <v>-0.2045643348786913</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2418964051706151</v>
+      </c>
+      <c r="E60">
+        <v>0.2519917574362629</v>
+      </c>
+      <c r="F60">
+        <v>0.07919014995046968</v>
+      </c>
+      <c r="G60">
+        <v>0.05871297714205203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04698109075066137</v>
+        <v>0.04383726533070298</v>
       </c>
       <c r="C61">
-        <v>-0.05952196792481725</v>
+        <v>0.05756039895539775</v>
       </c>
       <c r="D61">
-        <v>-0.01952689750104663</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04531127899272255</v>
+      </c>
+      <c r="E61">
+        <v>-0.05747205201370601</v>
+      </c>
+      <c r="F61">
+        <v>-0.05003742149977811</v>
+      </c>
+      <c r="G61">
+        <v>0.07426801530079633</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01783526649443814</v>
+        <v>0.01767424359460822</v>
       </c>
       <c r="C63">
-        <v>-0.03413523418432721</v>
+        <v>0.03107856092833911</v>
       </c>
       <c r="D63">
-        <v>0.01581473563554738</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01928990747739997</v>
+      </c>
+      <c r="E63">
+        <v>-0.06964708888416073</v>
+      </c>
+      <c r="F63">
+        <v>-0.03411124946506897</v>
+      </c>
+      <c r="G63">
+        <v>0.07324442327538574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05315497402014823</v>
+        <v>0.05815473881313222</v>
       </c>
       <c r="C64">
-        <v>-0.04984361485938334</v>
+        <v>0.05872835630821777</v>
       </c>
       <c r="D64">
-        <v>-0.01167805397973917</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01276872076461611</v>
+      </c>
+      <c r="E64">
+        <v>-0.04747617160335375</v>
+      </c>
+      <c r="F64">
+        <v>-0.04825697822884185</v>
+      </c>
+      <c r="G64">
+        <v>0.05388990033753527</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07931460357947438</v>
+        <v>0.064974778901341</v>
       </c>
       <c r="C65">
-        <v>-0.0232482177232237</v>
+        <v>0.02547035945133473</v>
       </c>
       <c r="D65">
-        <v>-0.05944634850646238</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08992755388592072</v>
+      </c>
+      <c r="E65">
+        <v>-0.05273695450897863</v>
+      </c>
+      <c r="F65">
+        <v>0.001844783459395642</v>
+      </c>
+      <c r="G65">
+        <v>0.01713469766084675</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06177673585815811</v>
+        <v>0.05382095389581774</v>
       </c>
       <c r="C66">
-        <v>-0.0812560821448627</v>
+        <v>0.07817028592502254</v>
       </c>
       <c r="D66">
-        <v>-0.04213294581710925</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07723163539950072</v>
+      </c>
+      <c r="E66">
+        <v>-0.07099589601270584</v>
+      </c>
+      <c r="F66">
+        <v>-0.05694257644208084</v>
+      </c>
+      <c r="G66">
+        <v>0.07303684528595226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05060238563653909</v>
+        <v>0.04401379786952131</v>
       </c>
       <c r="C67">
-        <v>-0.03213637700027075</v>
+        <v>0.02879178658547699</v>
       </c>
       <c r="D67">
-        <v>0.02388070597005307</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003744213799190346</v>
+      </c>
+      <c r="E67">
+        <v>-0.03271660523168746</v>
+      </c>
+      <c r="F67">
+        <v>-0.02386011318735216</v>
+      </c>
+      <c r="G67">
+        <v>0.03624244755870235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.123318951033296</v>
+        <v>0.1476704227475642</v>
       </c>
       <c r="C68">
-        <v>0.2800124846763187</v>
+        <v>-0.24371732737073</v>
       </c>
       <c r="D68">
-        <v>0.008046500969695201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0129799299357001</v>
+      </c>
+      <c r="E68">
+        <v>-0.04201256953714308</v>
+      </c>
+      <c r="F68">
+        <v>-0.006189570910989451</v>
+      </c>
+      <c r="G68">
+        <v>0.02420412699750324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09415744882305736</v>
+        <v>0.08933285744195447</v>
       </c>
       <c r="C69">
-        <v>-0.07160887903778425</v>
+        <v>0.09010461420558394</v>
       </c>
       <c r="D69">
-        <v>0.04741400411813356</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01039550624476284</v>
+      </c>
+      <c r="E69">
+        <v>-0.06188877829635778</v>
+      </c>
+      <c r="F69">
+        <v>-0.05084192768489212</v>
+      </c>
+      <c r="G69">
+        <v>0.07318126488491195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1152329537478535</v>
+        <v>0.1424956627749888</v>
       </c>
       <c r="C71">
-        <v>0.2604531813903432</v>
+        <v>-0.2441197220889356</v>
       </c>
       <c r="D71">
-        <v>-0.008932387420786347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.005621152831614603</v>
+      </c>
+      <c r="E71">
+        <v>-0.06168847081182365</v>
+      </c>
+      <c r="F71">
+        <v>-0.003908849761827997</v>
+      </c>
+      <c r="G71">
+        <v>0.05552959599746505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09910109225035514</v>
+        <v>0.1049420142704324</v>
       </c>
       <c r="C72">
-        <v>-0.04038323840878411</v>
+        <v>0.04714388994049959</v>
       </c>
       <c r="D72">
-        <v>-0.002641528474053088</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03703942394346482</v>
+      </c>
+      <c r="E72">
+        <v>-0.02038012879538519</v>
+      </c>
+      <c r="F72">
+        <v>-0.02318351809975741</v>
+      </c>
+      <c r="G72">
+        <v>0.1008295685705509</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.384679815885681</v>
+        <v>0.3267035209490963</v>
       </c>
       <c r="C73">
-        <v>-0.03909974066110396</v>
+        <v>0.06389472232817493</v>
       </c>
       <c r="D73">
-        <v>-0.5009000445491648</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4951175765419371</v>
+      </c>
+      <c r="E73">
+        <v>0.4783331669926776</v>
+      </c>
+      <c r="F73">
+        <v>0.2375241499645594</v>
+      </c>
+      <c r="G73">
+        <v>0.02030637236800961</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1066649198428489</v>
+        <v>0.1114507859891289</v>
       </c>
       <c r="C74">
-        <v>-0.09332565203245451</v>
+        <v>0.09220257172797866</v>
       </c>
       <c r="D74">
-        <v>0.04932934899818266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04589547915469856</v>
+      </c>
+      <c r="E74">
+        <v>-0.05667740184692014</v>
+      </c>
+      <c r="F74">
+        <v>0.008816451075818634</v>
+      </c>
+      <c r="G74">
+        <v>0.05171011926800193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2564822004982654</v>
+        <v>0.2592463812192817</v>
       </c>
       <c r="C75">
-        <v>-0.08553648858312159</v>
+        <v>0.1204943766027347</v>
       </c>
       <c r="D75">
-        <v>0.1517985010558696</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1535405079863432</v>
+      </c>
+      <c r="E75">
+        <v>-0.02212756244448971</v>
+      </c>
+      <c r="F75">
+        <v>0.0442248417477343</v>
+      </c>
+      <c r="G75">
+        <v>-0.04139467235971337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1166258830704301</v>
+        <v>0.1296096498218257</v>
       </c>
       <c r="C76">
-        <v>-0.07757939482216465</v>
+        <v>0.08939365562442124</v>
       </c>
       <c r="D76">
-        <v>0.07859948822614181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07645503356570041</v>
+      </c>
+      <c r="E76">
+        <v>-0.07893092619728238</v>
+      </c>
+      <c r="F76">
+        <v>-0.01455727608338036</v>
+      </c>
+      <c r="G76">
+        <v>0.03471316971923245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08540926403777023</v>
+        <v>0.06922258095093514</v>
       </c>
       <c r="C77">
-        <v>-0.0408869282606781</v>
+        <v>0.05645269404593774</v>
       </c>
       <c r="D77">
-        <v>-0.06106793464889883</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06910591967719261</v>
+      </c>
+      <c r="E77">
+        <v>-0.09982126207110779</v>
+      </c>
+      <c r="F77">
+        <v>-0.1787792366820669</v>
+      </c>
+      <c r="G77">
+        <v>-0.1248766547098943</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05030506975809024</v>
+        <v>0.04900719181786654</v>
       </c>
       <c r="C78">
-        <v>-0.03822933427993165</v>
+        <v>0.05173798486169513</v>
       </c>
       <c r="D78">
-        <v>-0.03550612149469604</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0678077595950734</v>
+      </c>
+      <c r="E78">
+        <v>-0.06591807028622532</v>
+      </c>
+      <c r="F78">
+        <v>-0.05181683923245157</v>
+      </c>
+      <c r="G78">
+        <v>0.06359852099465983</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.0002436299998083581</v>
+        <v>0.03432481456537757</v>
       </c>
       <c r="C79">
-        <v>-0.0008345997798229192</v>
+        <v>0.04934912758729943</v>
       </c>
       <c r="D79">
-        <v>-0.003556902975521893</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0828253174154369</v>
+      </c>
+      <c r="E79">
+        <v>-0.07158384440492987</v>
+      </c>
+      <c r="F79">
+        <v>0.02782038738589235</v>
+      </c>
+      <c r="G79">
+        <v>0.03265063578289303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03911785283362237</v>
+        <v>0.03056438074633136</v>
       </c>
       <c r="C80">
-        <v>-0.05245319298646958</v>
+        <v>0.05155905793251715</v>
       </c>
       <c r="D80">
-        <v>-0.04149004405652306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04655565259020101</v>
+      </c>
+      <c r="E80">
+        <v>-0.01450377773240234</v>
+      </c>
+      <c r="F80">
+        <v>-0.05175832135647094</v>
+      </c>
+      <c r="G80">
+        <v>-0.005111024986110585</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1439745276285154</v>
+        <v>0.1423652451255043</v>
       </c>
       <c r="C81">
-        <v>-0.07189604097176057</v>
+        <v>0.09081090417045543</v>
       </c>
       <c r="D81">
-        <v>0.1165669525542291</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1204580414541693</v>
+      </c>
+      <c r="E81">
+        <v>-0.06860809171163898</v>
+      </c>
+      <c r="F81">
+        <v>0.02099075608962774</v>
+      </c>
+      <c r="G81">
+        <v>-0.01584055654801607</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2035438412837052</v>
+        <v>0.2326244204821326</v>
       </c>
       <c r="C82">
-        <v>-0.09061995111145042</v>
+        <v>0.1548971531423965</v>
       </c>
       <c r="D82">
-        <v>0.2029817282754131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.247930001559061</v>
+      </c>
+      <c r="E82">
+        <v>0.03917647779520341</v>
+      </c>
+      <c r="F82">
+        <v>-0.03803491606460045</v>
+      </c>
+      <c r="G82">
+        <v>0.0740560603026944</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04449613237421336</v>
+        <v>0.03008111284483331</v>
       </c>
       <c r="C83">
-        <v>-0.03007731742815349</v>
+        <v>0.04481482290837519</v>
       </c>
       <c r="D83">
-        <v>-0.0413546323486731</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03396392443260651</v>
+      </c>
+      <c r="E83">
+        <v>-0.02601850131870381</v>
+      </c>
+      <c r="F83">
+        <v>-0.02319542934922252</v>
+      </c>
+      <c r="G83">
+        <v>-0.005366971560977531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-9.802012060299196e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0006155898292774952</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0006431032559840079</v>
+      </c>
+      <c r="E84">
+        <v>-0.003353978478315079</v>
+      </c>
+      <c r="F84">
+        <v>0.001461250809098831</v>
+      </c>
+      <c r="G84">
+        <v>0.0002175551633827983</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2204031975388576</v>
+        <v>0.2033423982018042</v>
       </c>
       <c r="C85">
-        <v>-0.09232794165994176</v>
+        <v>0.1102039536777578</v>
       </c>
       <c r="D85">
-        <v>0.1659247546593654</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1295245650156958</v>
+      </c>
+      <c r="E85">
+        <v>0.00828549075450811</v>
+      </c>
+      <c r="F85">
+        <v>0.102059100761962</v>
+      </c>
+      <c r="G85">
+        <v>0.009211491500294579</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01080078647353258</v>
+        <v>0.01438802128168741</v>
       </c>
       <c r="C86">
-        <v>-0.02962899087082168</v>
+        <v>0.01861373901406356</v>
       </c>
       <c r="D86">
-        <v>-0.04328780436225183</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06732227086155594</v>
+      </c>
+      <c r="E86">
+        <v>-0.08237565061166487</v>
+      </c>
+      <c r="F86">
+        <v>-0.07699470813790552</v>
+      </c>
+      <c r="G86">
+        <v>0.07287052076852042</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02984716828822561</v>
+        <v>0.0298831388953952</v>
       </c>
       <c r="C87">
-        <v>-0.002254755463974053</v>
+        <v>0.01307142383797885</v>
       </c>
       <c r="D87">
-        <v>-0.08049030215696587</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0908823752050867</v>
+      </c>
+      <c r="E87">
+        <v>-0.1291874627977367</v>
+      </c>
+      <c r="F87">
+        <v>-0.07210266095785092</v>
+      </c>
+      <c r="G87">
+        <v>-0.007149363259841475</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1106896629404605</v>
+        <v>0.09419214305919778</v>
       </c>
       <c r="C88">
-        <v>-0.08380650140097308</v>
+        <v>0.06708677655839035</v>
       </c>
       <c r="D88">
-        <v>0.01476281467269079</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01681939620461472</v>
+      </c>
+      <c r="E88">
+        <v>-0.05629737359865335</v>
+      </c>
+      <c r="F88">
+        <v>-0.04245821920069857</v>
+      </c>
+      <c r="G88">
+        <v>0.03039871277057717</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.175051537840273</v>
+        <v>0.2126916729262604</v>
       </c>
       <c r="C89">
-        <v>0.3804829128756521</v>
+        <v>-0.3839023172725589</v>
       </c>
       <c r="D89">
-        <v>0.03071378948514393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01370502110998473</v>
+      </c>
+      <c r="E89">
+        <v>-0.07891878959904262</v>
+      </c>
+      <c r="F89">
+        <v>-0.08714912517883168</v>
+      </c>
+      <c r="G89">
+        <v>-0.002750634027988605</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1691306933930526</v>
+        <v>0.1939395969527681</v>
       </c>
       <c r="C90">
-        <v>0.3343536377803439</v>
+        <v>-0.3110279018698756</v>
       </c>
       <c r="D90">
-        <v>0.03978027501902121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01706286632921594</v>
+      </c>
+      <c r="E90">
+        <v>-0.05780370665223033</v>
+      </c>
+      <c r="F90">
+        <v>-0.02707952115811178</v>
+      </c>
+      <c r="G90">
+        <v>0.01729754846679932</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1902199000923172</v>
+        <v>0.1874750877726654</v>
       </c>
       <c r="C91">
-        <v>-0.1228590939609376</v>
+        <v>0.1394354424052434</v>
       </c>
       <c r="D91">
-        <v>0.1333609633702311</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1264188821189912</v>
+      </c>
+      <c r="E91">
+        <v>-0.04944623884833261</v>
+      </c>
+      <c r="F91">
+        <v>0.01065595493963842</v>
+      </c>
+      <c r="G91">
+        <v>-0.006704633996918048</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1599650409218158</v>
+        <v>0.178811534240448</v>
       </c>
       <c r="C92">
-        <v>0.2963828537031594</v>
+        <v>-0.299062554106618</v>
       </c>
       <c r="D92">
-        <v>0.02288836718313875</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01258533864719412</v>
+      </c>
+      <c r="E92">
+        <v>-0.06668347386224564</v>
+      </c>
+      <c r="F92">
+        <v>-0.04928330307332031</v>
+      </c>
+      <c r="G92">
+        <v>0.02362609239686763</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1881393188815716</v>
+        <v>0.2133391082619811</v>
       </c>
       <c r="C93">
-        <v>0.3373668403551912</v>
+        <v>-0.3207590069487542</v>
       </c>
       <c r="D93">
-        <v>0.04653456344593587</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01965462351742394</v>
+      </c>
+      <c r="E93">
+        <v>-0.04412237815705006</v>
+      </c>
+      <c r="F93">
+        <v>0.001513800040868409</v>
+      </c>
+      <c r="G93">
+        <v>0.03629487615675176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3507172840095663</v>
+        <v>0.3474951587727366</v>
       </c>
       <c r="C94">
-        <v>-0.1326240621436677</v>
+        <v>0.1756331308173619</v>
       </c>
       <c r="D94">
-        <v>0.4094276066235654</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4065825628771351</v>
+      </c>
+      <c r="E94">
+        <v>0.00938652918279859</v>
+      </c>
+      <c r="F94">
+        <v>0.1155020420443335</v>
+      </c>
+      <c r="G94">
+        <v>-0.4276949390641361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1238582164605886</v>
+        <v>0.09024790704579451</v>
       </c>
       <c r="C95">
-        <v>-0.04576819657928258</v>
+        <v>0.05426775070692803</v>
       </c>
       <c r="D95">
-        <v>-0.2208163229064216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1952758719801498</v>
+      </c>
+      <c r="E95">
+        <v>0.1538353708092656</v>
+      </c>
+      <c r="F95">
+        <v>-0.7485685462344681</v>
+      </c>
+      <c r="G95">
+        <v>-0.5011163571552305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1892545264731492</v>
+        <v>0.1855275789060823</v>
       </c>
       <c r="C98">
-        <v>-0.02966755614275164</v>
+        <v>0.04820292483338967</v>
       </c>
       <c r="D98">
-        <v>-0.1839076470238812</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2013553408397426</v>
+      </c>
+      <c r="E98">
+        <v>0.1474319740030437</v>
+      </c>
+      <c r="F98">
+        <v>0.08980823658129117</v>
+      </c>
+      <c r="G98">
+        <v>0.07566274399445129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008318402054126326</v>
+        <v>0.007932362267158816</v>
       </c>
       <c r="C101">
-        <v>-0.03140279552467472</v>
+        <v>0.02786232551276176</v>
       </c>
       <c r="D101">
-        <v>0.005782647404340209</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02256897694347935</v>
+      </c>
+      <c r="E101">
+        <v>-0.06419719994576875</v>
+      </c>
+      <c r="F101">
+        <v>-0.05919112535004104</v>
+      </c>
+      <c r="G101">
+        <v>0.08129728815931828</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1211555719930383</v>
+        <v>0.1254747385310634</v>
       </c>
       <c r="C102">
-        <v>-0.06404365774465394</v>
+        <v>0.09625343706052453</v>
       </c>
       <c r="D102">
-        <v>0.0493691547079655</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06023833266457043</v>
+      </c>
+      <c r="E102">
+        <v>0.01339064571131709</v>
+      </c>
+      <c r="F102">
+        <v>-0.02287770192166614</v>
+      </c>
+      <c r="G102">
+        <v>-0.002198271317097236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
